--- a/data/trans_bre/P27D_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Edad-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +538,44 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,20 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-5,52</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>4,95</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-51,03%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>202,55%</t>
         </is>
@@ -609,20 +642,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,32; 5,03</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-13,23; 1,64</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>0,03; 10,79</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-78,96; 279,06</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>-84,7; 35,37</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-33,75; —</t>
         </is>
@@ -641,20 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,86</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>12,46</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>201,54%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>151,2%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>693,6%</t>
         </is>
@@ -669,20 +722,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,56; 12,17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0,81; 15,05</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>6,97; 18,65</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 911,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>-6,85; 810,78</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>88,82; —</t>
         </is>
@@ -701,20 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>3,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2,75</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>116,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>108,42%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>45,21%</t>
         </is>
@@ -729,20 +802,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,78; 8,61</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-0,15; 8,14</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>-3,94; 7,58</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 416,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>-16,68; 371,69</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-42,46; 222,95</t>
         </is>
@@ -761,20 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>-2,27</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>0,49</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-15,88%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-32,97%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6,24%</t>
         </is>
@@ -789,20 +882,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-6,09; 3,58</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>-7,03; 2,05</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>-5,2; 5,68</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-52,52; 57,53</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-72,03; 50,8</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>-49,54; 115,22</t>
         </is>
@@ -821,20 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>-4,12</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>-0,33</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-27,14%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-3,06%</t>
         </is>
@@ -849,20 +962,30 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,86; 11,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>-11,07; 2,39</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>-6,09; 5,9</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 206,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>-58,7; 21,11</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>-44,33; 85,43</t>
         </is>
@@ -881,20 +1004,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-5,76</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>5,71</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>1,24</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-31,9%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>54,57%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>11,45%</t>
         </is>
@@ -909,20 +1042,30 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-14,67; 5,6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>-2,27; 14,99</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>-6,68; 8,66</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-69,35; 41,81</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>-20,1; 217,48</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>-45,68; 139,75</t>
         </is>
@@ -941,20 +1084,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>1,73</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>3,66</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>20,84%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>54,91%</t>
         </is>
@@ -969,20 +1122,30 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,69; 4,39</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>-1,1; 4,47</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>1,12; 6,24</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 65,68</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>-12,8; 62,18</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>11,97; 117,22</t>
         </is>
@@ -997,11 +1160,11 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P27D_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27D_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-51,03%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>202,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7892522861757296</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.519125002431307</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.150539700954536</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1929672080945574</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.5103491861959923</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.189932014377694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; 5,03</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 1,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 10,79</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-78,96; 279,06</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-84,7; 35,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-33,75; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.199846479516737</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.23388731663741</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.2182599865146663</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7701017195056655</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8470164710204178</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3957531227223227</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.337201790473518</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.642698110695881</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.9610071054888</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>3.171797347641146</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.3536628315119861</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>201,54%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>151,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>693,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 12,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 15,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 18,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 911,6</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 810,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>88,82; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.715765782276793</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.863924169495872</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.66856944284256</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.013667113274437</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.51203568138858</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>7.057378830008733</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>116,87%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>108,42%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.592945984677047</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.8129095500139821</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.066799590503114</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.05301637513191963</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.06847717121681357</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.8989232586092427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 8,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 8,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 7,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 416,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,68; 371,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,46; 222,95</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.36731064259757</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.05146908621531</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.95996037365447</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>9.200879704363681</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>8.107802034663154</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +771,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-15,88%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-32,97%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.611052281922581</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.989481140259183</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.670420640748219</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.213933791083366</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.084187541572882</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4314699787281817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 3,58</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 2,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 5,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; 57,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-72,03; 50,8</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-49,54; 115,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.8773970763174275</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1505013575418094</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.430701385892231</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.1032417126726419</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1667952011304756</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4479318115818827</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.79337316884261</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.138662647674396</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.492720546399079</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>4.125339157075837</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.716896059327548</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.179081087244499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>60,92%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-27,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 11,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 2,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 5,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 206,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-58,7; 21,11</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-44,33; 85,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.262727859994135</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.268188154978226</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4796840341300748</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1445553385625472</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.3296600016954424</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.06029680332759856</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,76</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-31,9%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>54,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.818118539787121</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.034628860867056</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.29734688194208</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5169098731098419</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7202854600017463</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.514568152202819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,67; 5,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 14,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 8,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-69,35; 41,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-20,1; 217,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-45,68; 139,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.810591962198711</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.051959454006206</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.688770444347226</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6329112195221475</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5079564400380604</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.129961622239248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +935,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>21,68%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>20,84%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.113484104325123</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.11506587573107</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.254804175686342</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.6177803633304824</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.2714378114333282</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.02382112623931333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 4,39</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 4,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 6,24</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 65,68</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 62,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 117,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.6652584111265961</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.06755364741604</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.082582943129752</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1008759187178873</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.5870248655669087</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.4407705310203531</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.64425426094343</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.386949742226794</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.888263312635586</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.063942697091342</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.2110919414352614</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8535996970639194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-6.14206339003699</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.711796501915008</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.263217765962425</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.3476719912349992</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.5457161563100812</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.118120938774926</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-14.70492454836579</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.271595943643014</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-6.476770584828297</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.692429737971953</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.2009851758267948</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.4555767486458539</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3.531432213342921</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.99144427191478</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>8.506741956235771</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.3048107751003222</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.174793379953757</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.382037461127883</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.706704150648807</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.72734368979864</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.705376100189542</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2238907939852145</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.2083646262375269</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.5574728384414961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.7789375065138198</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.101480784246347</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.136854109604276</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.09020715804990284</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1280350250842011</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1210072009654442</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.268719795309081</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.47442569401707</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.279580279343009</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.6419385356374075</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.6217979987447431</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.182652090188387</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1180,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
